--- a/biology/Botanique/Ingrid_Bergman_(rose)/Ingrid_Bergman_(rose).xlsx
+++ b/biology/Botanique/Ingrid_Bergman_(rose)/Ingrid_Bergman_(rose).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Ingrid Bergman' est un cultivar de rosier hybride de thé obtenu en 1984 au Danemark par la maison Poulsen[1],[2]. Elle a été primée comme rose favorite du monde en 2000 et compte parmi les grands succès des catalogues mondiaux. Elle doit son nom à l'actrice suédoise Ingrid Bergman (1915-1982)[3].
+'Ingrid Bergman' est un cultivar de rosier hybride de thé obtenu en 1984 au Danemark par la maison Poulsen,. Elle a été primée comme rose favorite du monde en 2000 et compte parmi les grands succès des catalogues mondiaux. Elle doit son nom à l'actrice suédoise Ingrid Bergman (1915-1982).
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">'Ingrid Bergman' est une rose moderne hybride de thé remontante[4], issue de 'Precious Platinum' (Patrick Dickson, 1974). Le buisson a un port érigé de 60 cm à 100 cm et une largeur de 60 cm à 65 cm. Son feuillage est vert foncé et vernissé semi-brillant[1]. 
-La fleur peu parfumée arbore une couleur rouge sang à rouge foncé bien prononcée, ce qui en fait une des favorites des catalogues du monde entier. Elle est pleine et de grande dimension de 4,75 cm de diamètre à 12 cm de diamètre[5] et comprend de 26 à 40 pétales. La floraison est abondante avec une première vague à la fin du printemps. Elle est idéale pour les fleurs à couper.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'Ingrid Bergman' est une rose moderne hybride de thé remontante, issue de 'Precious Platinum' (Patrick Dickson, 1974). Le buisson a un port érigé de 60 cm à 100 cm et une largeur de 60 cm à 65 cm. Son feuillage est vert foncé et vernissé semi-brillant. 
+La fleur peu parfumée arbore une couleur rouge sang à rouge foncé bien prononcée, ce qui en fait une des favorites des catalogues du monde entier. Elle est pleine et de grande dimension de 4,75 cm de diamètre à 12 cm de diamètre et comprend de 26 à 40 pétales. La floraison est abondante avec une première vague à la fin du printemps. Elle est idéale pour les fleurs à couper.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle tolère la mi-ombre, mais préfère une situation ensoleillée en terre pas trop humide (à cause de la maladie des taches noires). Elle est vigoureuse et supporte les hivers rigoureux (zone 4b à -30°). Il faut supprimer les fleurs fanées pour stimuler la prochaine floraison et tailler deux fois par an: la taille d'entretien se réalise en novembre et la taille de formation de l'arbuste a lieu en mars. Pour les régions froides, avant les fortes gelées, il faut buter le pied. 
 			Bouton de la rose 'Ingrid Bergman'
@@ -578,7 +594,9 @@
           <t>Descendance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">'Ingrid Bergman' a donné naissance entre autres à 'Opening Night' (Dr Keith W. Zary, 1988) par croisement avec 'Olympiad'.
 </t>
@@ -609,7 +627,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>RNRS Trial Ground Certificate 1983.
 Médaille d'argent de Genève 1984.
